--- a/Intensivao de PYTHON/Aula 3 - Webscrapping/Produtos.xlsx
+++ b/Intensivao de PYTHON/Aula 3 - Webscrapping/Produtos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alonp\Desktop\Intensivão de Python\Aula 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMAÇÂO\---------- PYTHON  ----------\1. PYTHON BASICO\ESTUDOS\Cursos-Avancados-Python\Intensivao de PYTHON\Aula 3 - Webscrapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC7CF91-DAA3-485B-B3A8-DF046D25C0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405B096A-1DC8-43EF-90E5-4EACC838D746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="167" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +103,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -137,17 +149,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -486,18 +505,18 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -527,23 +546,23 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>999.99</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <f>D2*B2</f>
         <v>4999.95</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>1.4</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <f>F2*E2</f>
         <v>6999.9299999999994</v>
       </c>
@@ -552,23 +571,23 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>4500</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <f t="shared" ref="E3:E8" si="0">D3*B3</f>
         <v>27000</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <f t="shared" ref="G3:G8" si="1">F3*E3</f>
         <v>54000</v>
       </c>
@@ -577,23 +596,23 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>899.99</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <f t="shared" si="0"/>
         <v>4499.95</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>1.7</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <f t="shared" si="1"/>
         <v>7649.9149999999991</v>
       </c>
@@ -602,23 +621,23 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>799</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>5</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>3995</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>1.7</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <f t="shared" si="1"/>
         <v>6791.5</v>
       </c>
@@ -627,23 +646,23 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>3000</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>6</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>1.9</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <f t="shared" si="1"/>
         <v>34200</v>
       </c>
@@ -652,23 +671,23 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>480.48</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>5</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>2402.4</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <f t="shared" si="1"/>
         <v>4804.8</v>
       </c>
@@ -677,23 +696,23 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>350</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <f t="shared" si="1"/>
         <v>8049.9999999999991</v>
       </c>
